--- a/Data/old/metricas conjuntas.xlsx
+++ b/Data/old/metricas conjuntas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anaconda3\MeScripts\Comisiones4\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datos de Usuario\jsaenza\Documents\Comisiones\Comisiones-python\Data\old\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="reporte" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">reporte!$A$1:$G$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">reporte!$A$1:$G$106</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="135">
   <si>
     <t>Francisco Rivera</t>
   </si>
@@ -457,6 +457,15 @@
   </si>
   <si>
     <t>AFILIADORES</t>
+  </si>
+  <si>
+    <t>Jaime Moreno - Back</t>
+  </si>
+  <si>
+    <t>ASESOR EMPRESAS PLUS RETENCIÓN</t>
+  </si>
+  <si>
+    <t>Churn RUC Pyme</t>
   </si>
 </sst>
 </file>
@@ -815,11 +824,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22:F38"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2399,19 +2408,19 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="B69" t="s">
         <v>88</v>
       </c>
       <c r="C69" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="D69" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
         <v>41</v>
@@ -2431,7 +2440,7 @@
         <v>56</v>
       </c>
       <c r="D70" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E70" t="s">
         <v>33</v>
@@ -2445,19 +2454,19 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B71" t="s">
         <v>88</v>
       </c>
       <c r="C71" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
         <v>41</v>
@@ -2477,7 +2486,7 @@
         <v>65</v>
       </c>
       <c r="D72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
         <v>32</v>
@@ -2500,7 +2509,7 @@
         <v>65</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
         <v>32</v>
@@ -2514,16 +2523,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B74" t="s">
         <v>88</v>
       </c>
       <c r="C74" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E74" t="s">
         <v>32</v>
@@ -2546,7 +2555,7 @@
         <v>63</v>
       </c>
       <c r="D75" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
         <v>32</v>
@@ -2569,7 +2578,7 @@
         <v>63</v>
       </c>
       <c r="D76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E76" t="s">
         <v>32</v>
@@ -2589,10 +2598,10 @@
         <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E77" t="s">
         <v>32</v>
@@ -2615,7 +2624,7 @@
         <v>64</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
         <v>32</v>
@@ -2638,7 +2647,7 @@
         <v>64</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E79" t="s">
         <v>32</v>
@@ -2664,7 +2673,7 @@
         <v>14</v>
       </c>
       <c r="E80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
         <v>41</v>
@@ -2675,19 +2684,19 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D81" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
         <v>41</v>
@@ -2707,7 +2716,7 @@
         <v>66</v>
       </c>
       <c r="D82" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E82" t="s">
         <v>32</v>
@@ -2721,16 +2730,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B83" t="s">
         <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D83" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="E83" t="s">
         <v>32</v>
@@ -2756,7 +2765,7 @@
         <v>103</v>
       </c>
       <c r="E84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F84" t="s">
         <v>41</v>
@@ -2767,19 +2776,19 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B85" t="s">
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D85" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F85" t="s">
         <v>41</v>
@@ -2799,7 +2808,7 @@
         <v>59</v>
       </c>
       <c r="D86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E86" t="s">
         <v>32</v>
@@ -2819,10 +2828,10 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E87" t="s">
         <v>32</v>
@@ -2842,7 +2851,7 @@
         <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D88" t="s">
         <v>11</v>
@@ -2868,7 +2877,7 @@
         <v>69</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
         <v>32</v>
@@ -2891,7 +2900,7 @@
         <v>69</v>
       </c>
       <c r="D90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E90" t="s">
         <v>32</v>
@@ -2917,7 +2926,7 @@
         <v>14</v>
       </c>
       <c r="E91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F91" t="s">
         <v>41</v>
@@ -2928,19 +2937,19 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B92" t="s">
         <v>88</v>
       </c>
       <c r="C92" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D92" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F92" t="s">
         <v>41</v>
@@ -2960,7 +2969,7 @@
         <v>70</v>
       </c>
       <c r="D93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E93" t="s">
         <v>32</v>
@@ -2983,7 +2992,7 @@
         <v>70</v>
       </c>
       <c r="D94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E94" t="s">
         <v>32</v>
@@ -3006,13 +3015,13 @@
         <v>70</v>
       </c>
       <c r="D95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E95" t="s">
         <v>32</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s">
         <v>74</v>
@@ -3029,13 +3038,13 @@
         <v>70</v>
       </c>
       <c r="D96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E96" t="s">
         <v>32</v>
       </c>
       <c r="F96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G96" t="s">
         <v>74</v>
@@ -3052,7 +3061,7 @@
         <v>70</v>
       </c>
       <c r="D97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E97" t="s">
         <v>32</v>
@@ -3075,7 +3084,7 @@
         <v>70</v>
       </c>
       <c r="D98" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="E98" t="s">
         <v>32</v>
@@ -3098,10 +3107,10 @@
         <v>70</v>
       </c>
       <c r="D99" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F99" t="s">
         <v>41</v>
@@ -3121,7 +3130,7 @@
         <v>70</v>
       </c>
       <c r="D100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E100" t="s">
         <v>33</v>
@@ -3144,7 +3153,7 @@
         <v>70</v>
       </c>
       <c r="D101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E101" t="s">
         <v>33</v>
@@ -3167,20 +3176,20 @@
         <v>70</v>
       </c>
       <c r="D102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E102" t="s">
         <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G102" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
+      <c r="A103" t="s">
         <v>44</v>
       </c>
       <c r="B103" t="s">
@@ -3190,20 +3199,20 @@
         <v>70</v>
       </c>
       <c r="D103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E103" t="s">
         <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G103" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B104" t="s">
@@ -3213,7 +3222,7 @@
         <v>70</v>
       </c>
       <c r="D104" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E104" t="s">
         <v>33</v>
@@ -3226,7 +3235,7 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+      <c r="A105" t="s">
         <v>44</v>
       </c>
       <c r="B105" t="s">
@@ -3236,7 +3245,7 @@
         <v>70</v>
       </c>
       <c r="D105" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="E105" t="s">
         <v>33</v>
@@ -3249,22 +3258,45 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
+      <c r="A106" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B106" t="s">
+        <v>88</v>
+      </c>
+      <c r="C106" t="s">
+        <v>70</v>
+      </c>
+      <c r="D106" t="s">
+        <v>102</v>
+      </c>
+      <c r="E106" t="s">
+        <v>33</v>
+      </c>
+      <c r="F106" t="s">
+        <v>41</v>
+      </c>
+      <c r="G106" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A2:G105">
-    <sortCondition ref="G2:G105"/>
-    <sortCondition ref="B2:B105"/>
-    <sortCondition ref="A2:A105"/>
+  <sortState ref="A2:G106">
+    <sortCondition ref="G2:G106"/>
+    <sortCondition ref="B2:B106"/>
+    <sortCondition ref="A2:A106"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
